--- a/TimeSeries/Prac_data/TrainSet/stat.xlsx
+++ b/TimeSeries/Prac_data/TrainSet/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Thermoelectric_Project\TimeSeries\Prac_data\TrainSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE43BC92-A023-4DE1-9354-51BE810867D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC35B35-8081-4039-A7E3-7C3DA05F3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="7300" windowWidth="19200" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="3260" windowWidth="19200" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +94,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Timess New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Timess New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -118,9 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,15 +412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +451,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1650</v>
       </c>
@@ -468,8 +481,9 @@
       <c r="I2" s="1">
         <v>1159</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>134</v>
       </c>
@@ -497,48 +511,145 @@
       <c r="I3" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <f>A3/A2</f>
         <v>8.1212121212121208E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:I4" si="0">B3/B2</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>0.12405446293494705</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>2.8960817717206135E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0.11060606060606061</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>0.11515151515151516</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>0.12327586206896551</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>0.12165660051768766</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f>AVERAGE(A4:I4)</f>
         <v>9.0839422538429554E-2</v>
       </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>440</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>667</v>
+      </c>
+      <c r="D6" s="3">
+        <v>240</v>
+      </c>
+      <c r="E6" s="3">
+        <v>286</v>
+      </c>
+      <c r="F6" s="3">
+        <v>344</v>
+      </c>
+      <c r="G6" s="3">
+        <v>365</v>
+      </c>
+      <c r="H6" s="3">
+        <v>587</v>
+      </c>
+      <c r="I6" s="3">
+        <v>551</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <f>A6/A2</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:I7" si="1">B6/B2</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5045385779122542</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48722316865417375</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52121212121212124</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55303030303030298</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50603448275862073</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47540983606557374</v>
+      </c>
+      <c r="J7" s="3">
+        <f>AVERAGE(A7:I7)</f>
+        <v>0.46486854257158861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
